--- a/outcome/appendix/data/PHSMs/Dysentery.xlsx
+++ b/outcome/appendix/data/PHSMs/Dysentery.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,16 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">痢疾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,6 +412,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -416,10 +431,16 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>3309</v>
+      </c>
+      <c r="I2" t="n">
+        <v>374.617858995023</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +455,16 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>1912</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1683.22392410343</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +479,16 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>2892</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1265.82967176977</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +503,16 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>3695</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1450.03936179691</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -488,10 +527,16 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>5664</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1345.42898794583</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +551,16 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>7775</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1357.9137548436</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +575,16 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>7270</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3208.76114338049</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -542,10 +599,16 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>7943</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2165.02326543164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -560,10 +623,16 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>6206</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2007.53793628375</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +647,16 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>4793</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1494.08301782149</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +671,16 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>3568</v>
+      </c>
+      <c r="I12" t="n">
+        <v>986.394936238848</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -614,10 +695,16 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>3272</v>
+      </c>
+      <c r="I13" t="n">
+        <v>518.030117815135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -632,10 +719,16 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>2633</v>
+      </c>
+      <c r="I14" t="n">
+        <v>951.716368862946</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -650,10 +743,16 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>2623</v>
+      </c>
+      <c r="I15" t="n">
+        <v>945.291030482218</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -668,10 +767,16 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>3488</v>
+      </c>
+      <c r="I16" t="n">
+        <v>492.962970101515</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -686,10 +791,16 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>3945</v>
+      </c>
+      <c r="I17" t="n">
+        <v>857.844461517761</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -704,10 +815,16 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>5011</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1312.93965929351</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -722,10 +839,16 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>6408</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1814.39158054409</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -740,10 +863,16 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>6982</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2589.10552326294</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -758,10 +887,16 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>5326</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4084.94972152231</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -776,10 +911,16 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>5159</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2616.11600886676</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -794,10 +935,16 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>3745</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2204.14665629868</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +959,16 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>2775</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1644.90597752604</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -830,10 +983,16 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>2807</v>
+      </c>
+      <c r="I25" t="n">
+        <v>861.387836525575</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -848,10 +1007,16 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>2169</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1329.82104181975</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -866,10 +1031,16 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>2043</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1498.05599668384</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -884,10 +1055,16 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>2836</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1027.34228634838</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -902,10 +1079,16 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>2587</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1942.80475904347</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -920,10 +1103,16 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>3520</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2245.12096141945</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -938,10 +1127,16 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>4708</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2713.98744981365</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -956,10 +1151,16 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>5055</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3683.55906552607</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -974,10 +1175,16 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>4505</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4262.48232208508</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -992,10 +1199,16 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>3134</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4250.2580326245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1010,10 +1223,16 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>2559</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3117.92255511255</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1028,10 +1247,16 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>1975</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2318.61826230776</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/Dysentery.xlsx
+++ b/outcome/appendix/data/PHSMs/Dysentery.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3683.61785899502</v>
+        <v>3683.69171131124</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -437,7 +437,7 @@
         <v>3309</v>
       </c>
       <c r="I2" t="n">
-        <v>374.617858995023</v>
+        <v>374.691711311245</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -448,7 +448,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3595.22392410343</v>
+        <v>3595.28157804547</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -461,7 +461,7 @@
         <v>1912</v>
       </c>
       <c r="I3" t="n">
-        <v>1683.22392410343</v>
+        <v>1683.28157804547</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -472,7 +472,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4157.82967176977</v>
+        <v>4157.80337014297</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -485,7 +485,7 @@
         <v>2892</v>
       </c>
       <c r="I4" t="n">
-        <v>1265.82967176977</v>
+        <v>1265.80337014297</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -496,7 +496,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5145.03936179691</v>
+        <v>5144.95700921241</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -509,7 +509,7 @@
         <v>3695</v>
       </c>
       <c r="I5" t="n">
-        <v>1450.03936179691</v>
+        <v>1449.95700921241</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -520,7 +520,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>7009.42898794583</v>
+        <v>7009.37122272423</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -533,7 +533,7 @@
         <v>5664</v>
       </c>
       <c r="I6" t="n">
-        <v>1345.42898794583</v>
+        <v>1345.37122272423</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -544,7 +544,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>9132.9137548436</v>
+        <v>9132.8943212606</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -557,7 +557,7 @@
         <v>7775</v>
       </c>
       <c r="I7" t="n">
-        <v>1357.9137548436</v>
+        <v>1357.8943212606</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -568,7 +568,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>10478.7611433805</v>
+        <v>10478.7385811227</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -581,7 +581,7 @@
         <v>7270</v>
       </c>
       <c r="I8" t="n">
-        <v>3208.76114338049</v>
+        <v>3208.73858112267</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -592,7 +592,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>10108.0232654316</v>
+        <v>10108.0730978355</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -605,7 +605,7 @@
         <v>7943</v>
       </c>
       <c r="I9" t="n">
-        <v>2165.02326543164</v>
+        <v>2165.07309783553</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>8213.53793628375</v>
+        <v>8213.88679734332</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -629,7 +629,7 @@
         <v>6206</v>
       </c>
       <c r="I10" t="n">
-        <v>2007.53793628375</v>
+        <v>2007.88679734332</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -640,7 +640,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6287.08301782149</v>
+        <v>6287.5412079206</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -653,7 +653,7 @@
         <v>4793</v>
       </c>
       <c r="I11" t="n">
-        <v>1494.08301782149</v>
+        <v>1494.5412079206</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -664,7 +664,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>4554.39493623885</v>
+        <v>4554.83343128114</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -677,7 +677,7 @@
         <v>3568</v>
       </c>
       <c r="I12" t="n">
-        <v>986.394936238848</v>
+        <v>986.833431281138</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3790.03011781513</v>
+        <v>3790.23968371218</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -701,7 +701,7 @@
         <v>3272</v>
       </c>
       <c r="I13" t="n">
-        <v>518.030117815135</v>
+        <v>518.239683712181</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>3584.71636886295</v>
+        <v>3584.83239713146</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -725,7 +725,7 @@
         <v>2633</v>
       </c>
       <c r="I14" t="n">
-        <v>951.716368862946</v>
+        <v>951.832397131462</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -736,7 +736,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3568.29103048222</v>
+        <v>3568.35818209158</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -749,7 +749,7 @@
         <v>2623</v>
       </c>
       <c r="I15" t="n">
-        <v>945.291030482218</v>
+        <v>945.358182091579</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3980.96297010151</v>
+        <v>3980.92249761457</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -773,7 +773,7 @@
         <v>3488</v>
       </c>
       <c r="I16" t="n">
-        <v>492.962970101515</v>
+        <v>492.922497614569</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -784,7 +784,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4802.84446151776</v>
+        <v>4802.70522472881</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -797,7 +797,7 @@
         <v>3945</v>
       </c>
       <c r="I17" t="n">
-        <v>857.844461517761</v>
+        <v>857.70522472881</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6323.93965929351</v>
+        <v>6323.80649993902</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -821,7 +821,7 @@
         <v>5011</v>
       </c>
       <c r="I18" t="n">
-        <v>1312.93965929351</v>
+        <v>1312.80649993902</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -832,7 +832,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>8222.39158054409</v>
+        <v>8222.32968912329</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -845,7 +845,7 @@
         <v>6408</v>
       </c>
       <c r="I19" t="n">
-        <v>1814.39158054409</v>
+        <v>1814.32968912329</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -856,7 +856,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>9571.10552326294</v>
+        <v>9571.05903079457</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -869,7 +869,7 @@
         <v>6982</v>
       </c>
       <c r="I20" t="n">
-        <v>2589.10552326294</v>
+        <v>2589.05903079457</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -880,7 +880,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>9410.94972152231</v>
+        <v>9411.00841503371</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -893,7 +893,7 @@
         <v>5326</v>
       </c>
       <c r="I21" t="n">
-        <v>4084.94972152231</v>
+        <v>4085.00841503371</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -904,7 +904,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7775.11600886676</v>
+        <v>7775.66400596033</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -917,7 +917,7 @@
         <v>5159</v>
       </c>
       <c r="I22" t="n">
-        <v>2616.11600886676</v>
+        <v>2616.66400596033</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>5949.14665629868</v>
+        <v>5949.9689970449</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -941,7 +941,7 @@
         <v>3745</v>
       </c>
       <c r="I23" t="n">
-        <v>2204.14665629868</v>
+        <v>2204.9689970449</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>4419.90597752604</v>
+        <v>4420.67844154225</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -965,7 +965,7 @@
         <v>2775</v>
       </c>
       <c r="I24" t="n">
-        <v>1644.90597752604</v>
+        <v>1645.67844154225</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -976,7 +976,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3668.38783652558</v>
+        <v>3668.80152949142</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -989,7 +989,7 @@
         <v>2807</v>
       </c>
       <c r="I25" t="n">
-        <v>861.387836525575</v>
+        <v>861.801529491422</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>3498.82104181975</v>
+        <v>3498.97642452802</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1013,7 +1013,7 @@
         <v>2169</v>
       </c>
       <c r="I26" t="n">
-        <v>1329.82104181975</v>
+        <v>1329.97642452802</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3541.05599668384</v>
+        <v>3541.10288889317</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1037,7 +1037,7 @@
         <v>2043</v>
       </c>
       <c r="I27" t="n">
-        <v>1498.05599668384</v>
+        <v>1498.10288889317</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1048,7 +1048,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3863.34228634838</v>
+        <v>3863.28336405523</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1061,7 +1061,7 @@
         <v>2836</v>
       </c>
       <c r="I28" t="n">
-        <v>1027.34228634838</v>
+        <v>1027.28336405523</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1072,7 +1072,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4529.80475904347</v>
+        <v>4529.63088840396</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1085,7 +1085,7 @@
         <v>2587</v>
       </c>
       <c r="I29" t="n">
-        <v>1942.80475904347</v>
+        <v>1942.63088840396</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5765.12096141945</v>
+        <v>5764.92030515368</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1109,7 +1109,7 @@
         <v>3520</v>
       </c>
       <c r="I30" t="n">
-        <v>2245.12096141945</v>
+        <v>2244.92030515368</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7421.98744981365</v>
+        <v>7421.86538141801</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1133,7 +1133,7 @@
         <v>4708</v>
       </c>
       <c r="I31" t="n">
-        <v>2713.98744981365</v>
+        <v>2713.86538141801</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8738.55906552607</v>
+        <v>8738.4821002817</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1157,7 +1157,7 @@
         <v>5055</v>
       </c>
       <c r="I32" t="n">
-        <v>3683.55906552607</v>
+        <v>3683.4821002817</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>8767.48232208508</v>
+        <v>8767.52727967716</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1181,7 +1181,7 @@
         <v>4505</v>
       </c>
       <c r="I33" t="n">
-        <v>4262.48232208508</v>
+        <v>4262.52727967716</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7384.2580326245</v>
+        <v>7384.8958960702</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1205,7 +1205,7 @@
         <v>3134</v>
       </c>
       <c r="I34" t="n">
-        <v>4250.2580326245</v>
+        <v>4250.8958960702</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1216,7 +1216,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5676.92255511255</v>
+        <v>5678.00666917306</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1229,7 +1229,7 @@
         <v>2559</v>
       </c>
       <c r="I35" t="n">
-        <v>3117.92255511255</v>
+        <v>3119.00666917306</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1240,7 +1240,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4293.61826230776</v>
+        <v>4294.65325670741</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1253,7 +1253,7 @@
         <v>1975</v>
       </c>
       <c r="I36" t="n">
-        <v>2318.61826230776</v>
+        <v>2319.65325670741</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Dysentery.xlsx
+++ b/outcome/appendix/data/PHSMs/Dysentery.xlsx
@@ -424,7 +424,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3683.69171131124</v>
+        <v>3683.61785899502</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -437,7 +437,7 @@
         <v>3309</v>
       </c>
       <c r="I2" t="n">
-        <v>374.691711311245</v>
+        <v>374.617858995023</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -448,7 +448,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3595.28157804547</v>
+        <v>3595.22392410343</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -461,7 +461,7 @@
         <v>1912</v>
       </c>
       <c r="I3" t="n">
-        <v>1683.28157804547</v>
+        <v>1683.22392410343</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -472,7 +472,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4157.80337014297</v>
+        <v>4157.82967176977</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -485,7 +485,7 @@
         <v>2892</v>
       </c>
       <c r="I4" t="n">
-        <v>1265.80337014297</v>
+        <v>1265.82967176977</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -496,7 +496,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5144.95700921241</v>
+        <v>5145.03936179691</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -509,7 +509,7 @@
         <v>3695</v>
       </c>
       <c r="I5" t="n">
-        <v>1449.95700921241</v>
+        <v>1450.03936179691</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -520,7 +520,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>7009.37122272423</v>
+        <v>7009.42898794583</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -533,7 +533,7 @@
         <v>5664</v>
       </c>
       <c r="I6" t="n">
-        <v>1345.37122272423</v>
+        <v>1345.42898794583</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -544,7 +544,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>9132.8943212606</v>
+        <v>9132.9137548436</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -557,7 +557,7 @@
         <v>7775</v>
       </c>
       <c r="I7" t="n">
-        <v>1357.8943212606</v>
+        <v>1357.9137548436</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -568,7 +568,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>10478.7385811227</v>
+        <v>10478.7611433805</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -581,7 +581,7 @@
         <v>7270</v>
       </c>
       <c r="I8" t="n">
-        <v>3208.73858112267</v>
+        <v>3208.76114338049</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -592,7 +592,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>10108.0730978355</v>
+        <v>10108.0232654316</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -605,7 +605,7 @@
         <v>7943</v>
       </c>
       <c r="I9" t="n">
-        <v>2165.07309783553</v>
+        <v>2165.02326543164</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -616,7 +616,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>8213.88679734332</v>
+        <v>8213.53793628375</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -629,7 +629,7 @@
         <v>6206</v>
       </c>
       <c r="I10" t="n">
-        <v>2007.88679734332</v>
+        <v>2007.53793628375</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -640,7 +640,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6287.5412079206</v>
+        <v>6287.08301782149</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -653,7 +653,7 @@
         <v>4793</v>
       </c>
       <c r="I11" t="n">
-        <v>1494.5412079206</v>
+        <v>1494.08301782149</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -664,7 +664,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>4554.83343128114</v>
+        <v>4554.39493623885</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -677,7 +677,7 @@
         <v>3568</v>
       </c>
       <c r="I12" t="n">
-        <v>986.833431281138</v>
+        <v>986.394936238848</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3790.23968371218</v>
+        <v>3790.03011781513</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -701,7 +701,7 @@
         <v>3272</v>
       </c>
       <c r="I13" t="n">
-        <v>518.239683712181</v>
+        <v>518.030117815135</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>3584.83239713146</v>
+        <v>3584.71636886295</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -725,7 +725,7 @@
         <v>2633</v>
       </c>
       <c r="I14" t="n">
-        <v>951.832397131462</v>
+        <v>951.716368862946</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -736,7 +736,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3568.35818209158</v>
+        <v>3568.29103048222</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -749,7 +749,7 @@
         <v>2623</v>
       </c>
       <c r="I15" t="n">
-        <v>945.358182091579</v>
+        <v>945.291030482218</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3980.92249761457</v>
+        <v>3980.96297010151</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -773,7 +773,7 @@
         <v>3488</v>
       </c>
       <c r="I16" t="n">
-        <v>492.922497614569</v>
+        <v>492.962970101515</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -784,7 +784,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4802.70522472881</v>
+        <v>4802.84446151776</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -797,7 +797,7 @@
         <v>3945</v>
       </c>
       <c r="I17" t="n">
-        <v>857.70522472881</v>
+        <v>857.844461517761</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -808,7 +808,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6323.80649993902</v>
+        <v>6323.93965929351</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -821,7 +821,7 @@
         <v>5011</v>
       </c>
       <c r="I18" t="n">
-        <v>1312.80649993902</v>
+        <v>1312.93965929351</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -832,7 +832,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>8222.32968912329</v>
+        <v>8222.39158054409</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -845,7 +845,7 @@
         <v>6408</v>
       </c>
       <c r="I19" t="n">
-        <v>1814.32968912329</v>
+        <v>1814.39158054409</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -856,7 +856,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>9571.05903079457</v>
+        <v>9571.10552326294</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -869,7 +869,7 @@
         <v>6982</v>
       </c>
       <c r="I20" t="n">
-        <v>2589.05903079457</v>
+        <v>2589.10552326294</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -880,7 +880,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>9411.00841503371</v>
+        <v>9410.94972152231</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -893,7 +893,7 @@
         <v>5326</v>
       </c>
       <c r="I21" t="n">
-        <v>4085.00841503371</v>
+        <v>4084.94972152231</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -904,7 +904,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7775.66400596033</v>
+        <v>7775.11600886676</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -917,7 +917,7 @@
         <v>5159</v>
       </c>
       <c r="I22" t="n">
-        <v>2616.66400596033</v>
+        <v>2616.11600886676</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -928,7 +928,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>5949.9689970449</v>
+        <v>5949.14665629868</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -941,7 +941,7 @@
         <v>3745</v>
       </c>
       <c r="I23" t="n">
-        <v>2204.9689970449</v>
+        <v>2204.14665629868</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>4420.67844154225</v>
+        <v>4419.90597752604</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -965,7 +965,7 @@
         <v>2775</v>
       </c>
       <c r="I24" t="n">
-        <v>1645.67844154225</v>
+        <v>1644.90597752604</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -976,7 +976,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3668.80152949142</v>
+        <v>3668.38783652558</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -989,7 +989,7 @@
         <v>2807</v>
       </c>
       <c r="I25" t="n">
-        <v>861.801529491422</v>
+        <v>861.387836525575</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>3498.97642452802</v>
+        <v>3498.82104181975</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1013,7 +1013,7 @@
         <v>2169</v>
       </c>
       <c r="I26" t="n">
-        <v>1329.97642452802</v>
+        <v>1329.82104181975</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3541.10288889317</v>
+        <v>3541.05599668384</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1037,7 +1037,7 @@
         <v>2043</v>
       </c>
       <c r="I27" t="n">
-        <v>1498.10288889317</v>
+        <v>1498.05599668384</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1048,7 +1048,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3863.28336405523</v>
+        <v>3863.34228634838</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1061,7 +1061,7 @@
         <v>2836</v>
       </c>
       <c r="I28" t="n">
-        <v>1027.28336405523</v>
+        <v>1027.34228634838</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1072,7 +1072,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4529.63088840396</v>
+        <v>4529.80475904347</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1085,7 +1085,7 @@
         <v>2587</v>
       </c>
       <c r="I29" t="n">
-        <v>1942.63088840396</v>
+        <v>1942.80475904347</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1096,7 +1096,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5764.92030515368</v>
+        <v>5765.12096141945</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1109,7 +1109,7 @@
         <v>3520</v>
       </c>
       <c r="I30" t="n">
-        <v>2244.92030515368</v>
+        <v>2245.12096141945</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1120,7 +1120,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7421.86538141801</v>
+        <v>7421.98744981365</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1133,7 +1133,7 @@
         <v>4708</v>
       </c>
       <c r="I31" t="n">
-        <v>2713.86538141801</v>
+        <v>2713.98744981365</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1144,7 +1144,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8738.4821002817</v>
+        <v>8738.55906552607</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1157,7 +1157,7 @@
         <v>5055</v>
       </c>
       <c r="I32" t="n">
-        <v>3683.4821002817</v>
+        <v>3683.55906552607</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>8767.52727967716</v>
+        <v>8767.48232208508</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1181,7 +1181,7 @@
         <v>4505</v>
       </c>
       <c r="I33" t="n">
-        <v>4262.52727967716</v>
+        <v>4262.48232208508</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1192,7 +1192,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7384.8958960702</v>
+        <v>7384.2580326245</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1205,7 +1205,7 @@
         <v>3134</v>
       </c>
       <c r="I34" t="n">
-        <v>4250.8958960702</v>
+        <v>4250.2580326245</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1216,7 +1216,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5678.00666917306</v>
+        <v>5676.92255511255</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1229,7 +1229,7 @@
         <v>2559</v>
       </c>
       <c r="I35" t="n">
-        <v>3119.00666917306</v>
+        <v>3117.92255511255</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1240,7 +1240,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4294.65325670741</v>
+        <v>4293.61826230776</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1253,7 +1253,7 @@
         <v>1975</v>
       </c>
       <c r="I36" t="n">
-        <v>2319.65325670741</v>
+        <v>2318.61826230776</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
